--- a/docs/grafico.xlsx
+++ b/docs/grafico.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="3" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Total" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,19 +13,17 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Total tecnologia mes" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="% KO Urgentes" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="% KO DevOps" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparació anys" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-  </externalReferences>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,6 +33,14 @@
     </font>
     <font>
       <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="12"/>
@@ -47,7 +53,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -56,6 +62,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3D2FF"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -82,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -92,22 +104,53 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1667,162 +1710,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Desplegaments - Evolució mensual</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <view3D>
-      <rotX val="15"/>
-      <rotY val="20"/>
-      <rAngAx val="1"/>
-    </view3D>
-    <floor/>
-    <sideWall/>
-    <backWall/>
-    <plotArea>
-      <bar3DChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Total desplegaments'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Total desplegaments'!$A$2:$A$13</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Total desplegaments'!$B$2:$B$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Total desplegaments'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Total desplegaments'!$A$2:$A$13</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Total desplegaments'!$C$2:$C$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <gapDepth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-        <axId val="1000"/>
-      </bar3DChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Mesos</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Total</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-      <serAx>
-        <axId val="1000"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </serAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -2711,7 +2598,7 @@
                   <v>3</v>
                 </pt>
                 <pt idx="11">
-                  <v>7</v>
+                  <v>507</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2870,6 +2757,1229 @@
                 </pt>
                 <pt idx="11">
                   <v>69</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <gapDepth val="150"/>
+        <shape val="box"/>
+        <axId val="970809584"/>
+        <axId val="970813848"/>
+        <axId val="580268872"/>
+      </bar3DChart>
+      <catAx>
+        <axId val="970809584"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </txPr>
+        <crossAx val="970813848"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="970813848"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </txPr>
+        <crossAx val="970809584"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+      <serAx>
+        <axId val="580268872"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <majorTickMark val="out"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="970813848"/>
+        <crosses val="autoZero"/>
+      </serAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t>None</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </txPr>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Desplegaments - mensual</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <layout>
+        <manualLayout>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.1689867450630164"/>
+          <y val="0.06666668610868653"/>
+        </manualLayout>
+      </layout>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <pivotFmts>
+      <pivotFmt>
+        <idx val="0"/>
+        <spPr>
+          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </spPr>
+        <marker>
+          <symbol val="none"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </marker>
+        <dLbl>
+          <idx val="0"/>
+          <spPr>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <txPr>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:t>None</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </txPr>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbl>
+      </pivotFmt>
+      <pivotFmt>
+        <idx val="1"/>
+        <spPr>
+          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </spPr>
+        <marker>
+          <symbol val="none"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </marker>
+        <dLbl>
+          <idx val="0"/>
+          <spPr>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <txPr>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:t>None</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </txPr>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbl>
+      </pivotFmt>
+      <pivotFmt>
+        <idx val="2"/>
+        <spPr>
+          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </spPr>
+        <marker>
+          <symbol val="none"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </marker>
+        <dLbl>
+          <idx val="0"/>
+          <spPr>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <txPr>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:t>None</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </txPr>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbl>
+      </pivotFmt>
+      <pivotFmt>
+        <idx val="3"/>
+        <spPr>
+          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </spPr>
+        <marker>
+          <symbol val="none"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </marker>
+        <dLbl>
+          <idx val="0"/>
+          <spPr>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <txPr>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:t>None</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </txPr>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbl>
+      </pivotFmt>
+      <pivotFmt>
+        <idx val="4"/>
+        <spPr>
+          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </spPr>
+        <marker>
+          <symbol val="none"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </marker>
+        <dLbl>
+          <idx val="0"/>
+          <spPr>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <txPr>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:t>None</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </txPr>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbl>
+      </pivotFmt>
+      <pivotFmt>
+        <idx val="5"/>
+        <spPr>
+          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </spPr>
+        <marker>
+          <symbol val="none"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </marker>
+        <dLbl>
+          <idx val="0"/>
+          <spPr>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <txPr>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:t>None</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </txPr>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbl>
+      </pivotFmt>
+      <pivotFmt>
+        <idx val="6"/>
+        <spPr>
+          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </spPr>
+        <marker>
+          <symbol val="none"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </marker>
+        <dLbl>
+          <idx val="0"/>
+          <spPr>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <txPr>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:t>None</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </txPr>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbl>
+      </pivotFmt>
+      <pivotFmt>
+        <idx val="7"/>
+        <spPr>
+          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </spPr>
+        <marker>
+          <symbol val="none"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </marker>
+        <dLbl>
+          <idx val="0"/>
+          <spPr>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <txPr>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:t>None</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </txPr>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbl>
+      </pivotFmt>
+      <pivotFmt>
+        <idx val="8"/>
+        <spPr>
+          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </spPr>
+        <marker>
+          <symbol val="none"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </marker>
+        <dLbl>
+          <idx val="0"/>
+          <spPr>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <txPr>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:t>None</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </txPr>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbl>
+      </pivotFmt>
+      <pivotFmt>
+        <idx val="9"/>
+        <spPr>
+          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </spPr>
+        <marker>
+          <symbol val="none"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </marker>
+        <dLbl>
+          <idx val="0"/>
+          <spPr>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <txPr>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:t>None</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </txPr>
+          <showLegendKey val="0"/>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbl>
+      </pivotFmt>
+    </pivotFmts>
+    <view3D>
+      <rotX val="15"/>
+      <rotY val="20"/>
+      <rAngAx val="1"/>
+    </view3D>
+    <floor>
+      <thickness val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </spPr>
+    </floor>
+    <sideWall>
+      <thickness val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </spPr>
+    </sideWall>
+    <backWall>
+      <thickness val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </spPr>
+    </backWall>
+    <plotArea>
+      <layout>
+        <manualLayout>
+          <layoutTarget val="inner"/>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.09121669355702162"/>
+          <y val="0.1643056763796082"/>
+          <w val="0.8730320457335679"/>
+          <h val="0.628421005663752"/>
+        </manualLayout>
+      </layout>
+      <bar3DChart>
+        <barDir val="col"/>
+        <grouping val="standard"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Total desplegaments mes'!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Producció OK</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <txPr>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>None</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </txPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'Total desplegaments mes'!$A$2:$A$12</f>
+              <strCache>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>Devops</v>
+                </pt>
+                <pt idx="1">
+                  <v>BBDD</v>
+                </pt>
+                <pt idx="2">
+                  <v>Websphere</v>
+                </pt>
+                <pt idx="3">
+                  <v>.NET</v>
+                </pt>
+                <pt idx="4">
+                  <v>BIM</v>
+                </pt>
+                <pt idx="5">
+                  <v>Client/Servidor</v>
+                </pt>
+                <pt idx="6">
+                  <v>Paquet</v>
+                </pt>
+                <pt idx="7">
+                  <v>Pegats</v>
+                </pt>
+                <pt idx="8">
+                  <v>Cognos</v>
+                </pt>
+                <pt idx="9">
+                  <v>Documentum</v>
+                </pt>
+                <pt idx="10">
+                  <v>Otros</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Total desplegaments mes'!$B$2:$B$12</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>28</v>
+                </pt>
+                <pt idx="1">
+                  <v>13</v>
+                </pt>
+                <pt idx="2">
+                  <v>9</v>
+                </pt>
+                <pt idx="3">
+                  <v>5</v>
+                </pt>
+                <pt idx="4">
+                  <v>3</v>
+                </pt>
+                <pt idx="5">
+                  <v>4</v>
+                </pt>
+                <pt idx="6">
+                  <v>2</v>
+                </pt>
+                <pt idx="7">
+                  <v>2</v>
+                </pt>
+                <pt idx="8">
+                  <v>1</v>
+                </pt>
+                <pt idx="9">
+                  <v>1</v>
+                </pt>
+                <pt idx="10">
+                  <v>1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Total desplegaments mes'!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Producció KO</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <txPr>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="144000" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>None</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </txPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'Total desplegaments mes'!$A$2:$A$12</f>
+              <strCache>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>Devops</v>
+                </pt>
+                <pt idx="1">
+                  <v>BBDD</v>
+                </pt>
+                <pt idx="2">
+                  <v>Websphere</v>
+                </pt>
+                <pt idx="3">
+                  <v>.NET</v>
+                </pt>
+                <pt idx="4">
+                  <v>BIM</v>
+                </pt>
+                <pt idx="5">
+                  <v>Client/Servidor</v>
+                </pt>
+                <pt idx="6">
+                  <v>Paquet</v>
+                </pt>
+                <pt idx="7">
+                  <v>Pegats</v>
+                </pt>
+                <pt idx="8">
+                  <v>Cognos</v>
+                </pt>
+                <pt idx="9">
+                  <v>Documentum</v>
+                </pt>
+                <pt idx="10">
+                  <v>Otros</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Total desplegaments mes'!$C$2:$C$12</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>4</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>0</v>
+                </pt>
+                <pt idx="3">
+                  <v>0</v>
+                </pt>
+                <pt idx="4">
+                  <v>1</v>
+                </pt>
+                <pt idx="5">
+                  <v>0</v>
+                </pt>
+                <pt idx="6">
+                  <v>0</v>
+                </pt>
+                <pt idx="7">
+                  <v>0</v>
+                </pt>
+                <pt idx="8">
+                  <v>0</v>
+                </pt>
+                <pt idx="9">
+                  <v>0</v>
+                </pt>
+                <pt idx="10">
+                  <v>500</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3058,1082 +4168,6 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Deplegaments -2023-09</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <view3D>
-      <rotX val="15"/>
-      <rotY val="20"/>
-      <rAngAx val="1"/>
-    </view3D>
-    <floor/>
-    <sideWall/>
-    <backWall/>
-    <plotArea>
-      <bar3DChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Total desplegaments mes'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Total desplegaments mes'!$A$2:$A$12</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Total desplegaments mes'!$B$2:$B$12</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Total desplegaments mes'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Total desplegaments mes'!$A$2:$A$12</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Total desplegaments mes'!$C$2:$C$12</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <gapDepth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-        <axId val="1000"/>
-      </bar3DChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Tecnologies</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Total</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-      <serAx>
-        <axId val="1000"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </serAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES">
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Deplegaments</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-ES" baseline="0">
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t xml:space="preserve"> -  Mes</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-ES">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-      <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </txPr>
-    </title>
-    <pivotFmts>
-      <pivotFmt>
-        <idx val="0"/>
-        <spPr>
-          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </spPr>
-        <marker>
-          <symbol val="none"/>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-        </marker>
-        <dLbl>
-          <idx val="0"/>
-          <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <txPr>
-            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:r>
-                <a:t>None</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </txPr>
-          <showLegendKey val="0"/>
-          <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbl>
-      </pivotFmt>
-      <pivotFmt>
-        <idx val="1"/>
-        <spPr>
-          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </spPr>
-        <marker>
-          <symbol val="none"/>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-        </marker>
-        <dLbl>
-          <idx val="0"/>
-          <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <txPr>
-            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:r>
-                <a:t>None</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </txPr>
-          <showLegendKey val="0"/>
-          <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbl>
-      </pivotFmt>
-      <pivotFmt>
-        <idx val="2"/>
-        <spPr>
-          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </spPr>
-        <dLbl>
-          <idx val="0"/>
-          <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <txPr>
-            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:r>
-                <a:t>None</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </txPr>
-          <showLegendKey val="0"/>
-          <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbl>
-      </pivotFmt>
-      <pivotFmt>
-        <idx val="3"/>
-        <spPr>
-          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </spPr>
-        <marker>
-          <symbol val="none"/>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-        </marker>
-        <dLbl>
-          <idx val="0"/>
-          <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <txPr>
-            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:r>
-                <a:t>None</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </txPr>
-          <showLegendKey val="0"/>
-          <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbl>
-      </pivotFmt>
-      <pivotFmt>
-        <idx val="4"/>
-        <spPr>
-          <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </spPr>
-        <marker>
-          <symbol val="none"/>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-        </marker>
-        <dLbl>
-          <idx val="0"/>
-          <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <txPr>
-            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:r>
-                <a:t>None</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </txPr>
-          <showLegendKey val="0"/>
-          <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbl>
-      </pivotFmt>
-    </pivotFmts>
-    <view3D>
-      <rotX val="15"/>
-      <rotY val="20"/>
-      <rAngAx val="1"/>
-    </view3D>
-    <floor>
-      <thickness val="0"/>
-      <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </spPr>
-    </floor>
-    <sideWall>
-      <thickness val="0"/>
-      <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </spPr>
-    </sideWall>
-    <backWall>
-      <thickness val="0"/>
-      <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </spPr>
-    </backWall>
-    <plotArea>
-      <layout>
-        <manualLayout>
-          <layoutTarget val="inner"/>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.08036468425498088"/>
-          <y val="0.1124610591900312"/>
-          <w val="0.7319798298660647"/>
-          <h val="0.6257264454092771"/>
-        </manualLayout>
-      </layout>
-      <bar3DChart>
-        <barDir val="col"/>
-        <grouping val="stacked"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Total desplegaments mes'!$B$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Producció OK</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Total desplegaments mes'!$A$2:$A$12</f>
-              <strCache>
-                <ptCount val="11"/>
-                <pt idx="0">
-                  <v>Devops</v>
-                </pt>
-                <pt idx="1">
-                  <v>BBDD</v>
-                </pt>
-                <pt idx="2">
-                  <v>Websphere</v>
-                </pt>
-                <pt idx="3">
-                  <v>.NET</v>
-                </pt>
-                <pt idx="4">
-                  <v>BIM</v>
-                </pt>
-                <pt idx="5">
-                  <v>Client/Servidor</v>
-                </pt>
-                <pt idx="6">
-                  <v>Paquet</v>
-                </pt>
-                <pt idx="7">
-                  <v>Pegats</v>
-                </pt>
-                <pt idx="8">
-                  <v>Cognos</v>
-                </pt>
-                <pt idx="9">
-                  <v>Documentum</v>
-                </pt>
-                <pt idx="10">
-                  <v>Otros</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Total desplegaments mes'!$B$2:$B$12</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="11"/>
-                <pt idx="0">
-                  <v>28</v>
-                </pt>
-                <pt idx="1">
-                  <v>13</v>
-                </pt>
-                <pt idx="2">
-                  <v>9</v>
-                </pt>
-                <pt idx="3">
-                  <v>5</v>
-                </pt>
-                <pt idx="4">
-                  <v>3</v>
-                </pt>
-                <pt idx="5">
-                  <v>4</v>
-                </pt>
-                <pt idx="6">
-                  <v>2</v>
-                </pt>
-                <pt idx="7">
-                  <v>2</v>
-                </pt>
-                <pt idx="8">
-                  <v>1</v>
-                </pt>
-                <pt idx="9">
-                  <v>1</v>
-                </pt>
-                <pt idx="10">
-                  <v>1</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Total desplegaments mes'!$C$1</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Producció KO</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Total desplegaments mes'!$A$2:$A$12</f>
-              <strCache>
-                <ptCount val="11"/>
-                <pt idx="0">
-                  <v>Devops</v>
-                </pt>
-                <pt idx="1">
-                  <v>BBDD</v>
-                </pt>
-                <pt idx="2">
-                  <v>Websphere</v>
-                </pt>
-                <pt idx="3">
-                  <v>.NET</v>
-                </pt>
-                <pt idx="4">
-                  <v>BIM</v>
-                </pt>
-                <pt idx="5">
-                  <v>Client/Servidor</v>
-                </pt>
-                <pt idx="6">
-                  <v>Paquet</v>
-                </pt>
-                <pt idx="7">
-                  <v>Pegats</v>
-                </pt>
-                <pt idx="8">
-                  <v>Cognos</v>
-                </pt>
-                <pt idx="9">
-                  <v>Documentum</v>
-                </pt>
-                <pt idx="10">
-                  <v>Otros</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Total desplegaments mes'!$C$2:$C$12</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="11"/>
-                <pt idx="0">
-                  <v>4</v>
-                </pt>
-                <pt idx="1">
-                  <v>2</v>
-                </pt>
-                <pt idx="2">
-                  <v>0</v>
-                </pt>
-                <pt idx="3">
-                  <v>0</v>
-                </pt>
-                <pt idx="4">
-                  <v>1</v>
-                </pt>
-                <pt idx="5">
-                  <v>0</v>
-                </pt>
-                <pt idx="6">
-                  <v>0</v>
-                </pt>
-                <pt idx="7">
-                  <v>0</v>
-                </pt>
-                <pt idx="8">
-                  <v>0</v>
-                </pt>
-                <pt idx="9">
-                  <v>0</v>
-                </pt>
-                <pt idx="10">
-                  <v>0</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <gapDepth val="150"/>
-        <shape val="box"/>
-        <axId val="904750352"/>
-        <axId val="147427304"/>
-        <axId val="1000"/>
-      </bar3DChart>
-      <catAx>
-        <axId val="904750352"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="out"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-2640000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>None</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </txPr>
-        <crossAx val="147427304"/>
-        <crosses val="autoZero"/>
-        <auto val="1"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
-      </catAx>
-      <valAx>
-        <axId val="147427304"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </spPr>
-        </majorGridlines>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="out"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>None</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </txPr>
-        <crossAx val="904750352"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-      <serAx>
-        <axId val="1000"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </serAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.8151614480193627"/>
-          <y val="0.4771803174135944"/>
-          <w val="0.1735708163873688"/>
-          <h val="0.2733652218706306"/>
-        </manualLayout>
-      </layout>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-      <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </txPr>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -4547,7 +4581,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -4949,7 +4983,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -5070,48 +5104,45 @@
             <showLeaderLines val="0"/>
           </dLbls>
           <cat>
-            <strRef>
-              <f>[1]Urgents!$B$23:$B$34</f>
-              <strCache>
-                <ptCount val="12"/>
-                <pt idx="0">
-                  <v>oct</v>
-                </pt>
-                <pt idx="1">
-                  <v>nov</v>
-                </pt>
-                <pt idx="2">
-                  <v>des</v>
-                </pt>
-                <pt idx="3">
-                  <v>ene</v>
-                </pt>
-                <pt idx="4">
-                  <v>feb</v>
-                </pt>
-                <pt idx="5">
-                  <v>mar</v>
-                </pt>
-                <pt idx="6">
-                  <v>abr</v>
-                </pt>
-                <pt idx="7">
-                  <v>may</v>
-                </pt>
-                <pt idx="8">
-                  <v>jun</v>
-                </pt>
-                <pt idx="9">
-                  <v>jul</v>
-                </pt>
-                <pt idx="10">
-                  <v>ago</v>
-                </pt>
-                <pt idx="11">
-                  <v>sep</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <strLit>
+              <ptCount val="12"/>
+              <pt idx="0">
+                <v>oct</v>
+              </pt>
+              <pt idx="1">
+                <v>nov</v>
+              </pt>
+              <pt idx="2">
+                <v>des</v>
+              </pt>
+              <pt idx="3">
+                <v>ene</v>
+              </pt>
+              <pt idx="4">
+                <v>feb</v>
+              </pt>
+              <pt idx="5">
+                <v>mar</v>
+              </pt>
+              <pt idx="6">
+                <v>abr</v>
+              </pt>
+              <pt idx="7">
+                <v>may</v>
+              </pt>
+              <pt idx="8">
+                <v>jun</v>
+              </pt>
+              <pt idx="9">
+                <v>jul</v>
+              </pt>
+              <pt idx="10">
+                <v>ago</v>
+              </pt>
+              <pt idx="11">
+                <v>sep</v>
+              </pt>
+            </strLit>
           </cat>
           <val>
             <numRef>
@@ -5233,48 +5264,45 @@
             <showLeaderLines val="0"/>
           </dLbls>
           <cat>
-            <strRef>
-              <f>[1]Urgents!$B$23:$B$34</f>
-              <strCache>
-                <ptCount val="12"/>
-                <pt idx="0">
-                  <v>oct</v>
-                </pt>
-                <pt idx="1">
-                  <v>nov</v>
-                </pt>
-                <pt idx="2">
-                  <v>des</v>
-                </pt>
-                <pt idx="3">
-                  <v>ene</v>
-                </pt>
-                <pt idx="4">
-                  <v>feb</v>
-                </pt>
-                <pt idx="5">
-                  <v>mar</v>
-                </pt>
-                <pt idx="6">
-                  <v>abr</v>
-                </pt>
-                <pt idx="7">
-                  <v>may</v>
-                </pt>
-                <pt idx="8">
-                  <v>jun</v>
-                </pt>
-                <pt idx="9">
-                  <v>jul</v>
-                </pt>
-                <pt idx="10">
-                  <v>ago</v>
-                </pt>
-                <pt idx="11">
-                  <v>sep</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <strLit>
+              <ptCount val="12"/>
+              <pt idx="0">
+                <v>oct</v>
+              </pt>
+              <pt idx="1">
+                <v>nov</v>
+              </pt>
+              <pt idx="2">
+                <v>des</v>
+              </pt>
+              <pt idx="3">
+                <v>ene</v>
+              </pt>
+              <pt idx="4">
+                <v>feb</v>
+              </pt>
+              <pt idx="5">
+                <v>mar</v>
+              </pt>
+              <pt idx="6">
+                <v>abr</v>
+              </pt>
+              <pt idx="7">
+                <v>may</v>
+              </pt>
+              <pt idx="8">
+                <v>jun</v>
+              </pt>
+              <pt idx="9">
+                <v>jul</v>
+              </pt>
+              <pt idx="10">
+                <v>ago</v>
+              </pt>
+              <pt idx="11">
+                <v>sep</v>
+              </pt>
+            </strLit>
           </cat>
           <val>
             <numRef>
@@ -5885,7 +5913,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -6200,48 +6228,45 @@
             <showLeaderLines val="0"/>
           </dLbls>
           <cat>
-            <strRef>
-              <f>[1]DevOps_vs_KO!$B$30:$B$41</f>
-              <strCache>
-                <ptCount val="12"/>
-                <pt idx="0">
-                  <v>oct</v>
-                </pt>
-                <pt idx="1">
-                  <v>nov</v>
-                </pt>
-                <pt idx="2">
-                  <v>dic</v>
-                </pt>
-                <pt idx="3">
-                  <v>ene</v>
-                </pt>
-                <pt idx="4">
-                  <v>feb</v>
-                </pt>
-                <pt idx="5">
-                  <v>mar</v>
-                </pt>
-                <pt idx="6">
-                  <v>abr</v>
-                </pt>
-                <pt idx="7">
-                  <v>may</v>
-                </pt>
-                <pt idx="8">
-                  <v>jun</v>
-                </pt>
-                <pt idx="9">
-                  <v>jul</v>
-                </pt>
-                <pt idx="10">
-                  <v>ago</v>
-                </pt>
-                <pt idx="11">
-                  <v>sep</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <strLit>
+              <ptCount val="12"/>
+              <pt idx="0">
+                <v>oct</v>
+              </pt>
+              <pt idx="1">
+                <v>nov</v>
+              </pt>
+              <pt idx="2">
+                <v>dic</v>
+              </pt>
+              <pt idx="3">
+                <v>ene</v>
+              </pt>
+              <pt idx="4">
+                <v>feb</v>
+              </pt>
+              <pt idx="5">
+                <v>mar</v>
+              </pt>
+              <pt idx="6">
+                <v>abr</v>
+              </pt>
+              <pt idx="7">
+                <v>may</v>
+              </pt>
+              <pt idx="8">
+                <v>jun</v>
+              </pt>
+              <pt idx="9">
+                <v>jul</v>
+              </pt>
+              <pt idx="10">
+                <v>ago</v>
+              </pt>
+              <pt idx="11">
+                <v>sep</v>
+              </pt>
+            </strLit>
           </cat>
           <val>
             <numRef>
@@ -6370,48 +6395,45 @@
             <showLeaderLines val="0"/>
           </dLbls>
           <cat>
-            <strRef>
-              <f>[1]DevOps_vs_KO!$B$30:$B$41</f>
-              <strCache>
-                <ptCount val="12"/>
-                <pt idx="0">
-                  <v>oct</v>
-                </pt>
-                <pt idx="1">
-                  <v>nov</v>
-                </pt>
-                <pt idx="2">
-                  <v>dic</v>
-                </pt>
-                <pt idx="3">
-                  <v>ene</v>
-                </pt>
-                <pt idx="4">
-                  <v>feb</v>
-                </pt>
-                <pt idx="5">
-                  <v>mar</v>
-                </pt>
-                <pt idx="6">
-                  <v>abr</v>
-                </pt>
-                <pt idx="7">
-                  <v>may</v>
-                </pt>
-                <pt idx="8">
-                  <v>jun</v>
-                </pt>
-                <pt idx="9">
-                  <v>jul</v>
-                </pt>
-                <pt idx="10">
-                  <v>ago</v>
-                </pt>
-                <pt idx="11">
-                  <v>sep</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <strLit>
+              <ptCount val="12"/>
+              <pt idx="0">
+                <v>oct</v>
+              </pt>
+              <pt idx="1">
+                <v>nov</v>
+              </pt>
+              <pt idx="2">
+                <v>dic</v>
+              </pt>
+              <pt idx="3">
+                <v>ene</v>
+              </pt>
+              <pt idx="4">
+                <v>feb</v>
+              </pt>
+              <pt idx="5">
+                <v>mar</v>
+              </pt>
+              <pt idx="6">
+                <v>abr</v>
+              </pt>
+              <pt idx="7">
+                <v>may</v>
+              </pt>
+              <pt idx="8">
+                <v>jun</v>
+              </pt>
+              <pt idx="9">
+                <v>jul</v>
+              </pt>
+              <pt idx="10">
+                <v>ago</v>
+              </pt>
+              <pt idx="11">
+                <v>sep</v>
+              </pt>
+            </strLit>
           </cat>
           <val>
             <numRef>
@@ -6770,6 +6792,763 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Deplegaments - Evolució mensual</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="stacked"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Comparació anys'!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Producció OK 2023</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <txPr>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>None</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </txPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'Comparació anys'!$A$2:$A$10</f>
+              <strCache>
+                <ptCount val="9"/>
+                <pt idx="0">
+                  <v>gen</v>
+                </pt>
+                <pt idx="1">
+                  <v>febr</v>
+                </pt>
+                <pt idx="2">
+                  <v>març</v>
+                </pt>
+                <pt idx="3">
+                  <v>abr</v>
+                </pt>
+                <pt idx="4">
+                  <v>maig</v>
+                </pt>
+                <pt idx="5">
+                  <v>juny</v>
+                </pt>
+                <pt idx="6">
+                  <v>juliol</v>
+                </pt>
+                <pt idx="7">
+                  <v>ag</v>
+                </pt>
+                <pt idx="8">
+                  <v>set</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Comparació anys'!$B$2:$B$10</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="9"/>
+                <pt idx="0">
+                  <v>119</v>
+                </pt>
+                <pt idx="1">
+                  <v>213</v>
+                </pt>
+                <pt idx="2">
+                  <v>213</v>
+                </pt>
+                <pt idx="3">
+                  <v>141</v>
+                </pt>
+                <pt idx="4">
+                  <v>206</v>
+                </pt>
+                <pt idx="5">
+                  <v>153</v>
+                </pt>
+                <pt idx="6">
+                  <v>220</v>
+                </pt>
+                <pt idx="7">
+                  <v>19</v>
+                </pt>
+                <pt idx="8">
+                  <v>69</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Comparació anys'!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Producció KO 2023</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <spPr>
+              <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <txPr>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>None</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </txPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'Comparació anys'!$A$2:$A$10</f>
+              <strCache>
+                <ptCount val="9"/>
+                <pt idx="0">
+                  <v>gen</v>
+                </pt>
+                <pt idx="1">
+                  <v>febr</v>
+                </pt>
+                <pt idx="2">
+                  <v>març</v>
+                </pt>
+                <pt idx="3">
+                  <v>abr</v>
+                </pt>
+                <pt idx="4">
+                  <v>maig</v>
+                </pt>
+                <pt idx="5">
+                  <v>juny</v>
+                </pt>
+                <pt idx="6">
+                  <v>juliol</v>
+                </pt>
+                <pt idx="7">
+                  <v>ag</v>
+                </pt>
+                <pt idx="8">
+                  <v>set</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Comparació anys'!$C$2:$C$10</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="9"/>
+                <pt idx="0">
+                  <v>21</v>
+                </pt>
+                <pt idx="1">
+                  <v>31</v>
+                </pt>
+                <pt idx="2">
+                  <v>24</v>
+                </pt>
+                <pt idx="3">
+                  <v>26</v>
+                </pt>
+                <pt idx="4">
+                  <v>20</v>
+                </pt>
+                <pt idx="5">
+                  <v>15</v>
+                </pt>
+                <pt idx="6">
+                  <v>12</v>
+                </pt>
+                <pt idx="7">
+                  <v>3</v>
+                </pt>
+                <pt idx="8">
+                  <v>7</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="219"/>
+        <overlap val="100"/>
+        <axId val="1004190032"/>
+        <axId val="1004187872"/>
+      </barChart>
+      <lineChart>
+        <grouping val="standard"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Comparació anys'!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Total Producció 2023</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <strRef>
+              <f>'Comparació anys'!$A$2:$A$10</f>
+              <strCache>
+                <ptCount val="9"/>
+                <pt idx="0">
+                  <v>gen</v>
+                </pt>
+                <pt idx="1">
+                  <v>febr</v>
+                </pt>
+                <pt idx="2">
+                  <v>març</v>
+                </pt>
+                <pt idx="3">
+                  <v>abr</v>
+                </pt>
+                <pt idx="4">
+                  <v>maig</v>
+                </pt>
+                <pt idx="5">
+                  <v>juny</v>
+                </pt>
+                <pt idx="6">
+                  <v>juliol</v>
+                </pt>
+                <pt idx="7">
+                  <v>ag</v>
+                </pt>
+                <pt idx="8">
+                  <v>set</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Comparació anys'!$D$2:$D$10</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="9"/>
+                <pt idx="0">
+                  <v>140</v>
+                </pt>
+                <pt idx="1">
+                  <v>244</v>
+                </pt>
+                <pt idx="2">
+                  <v>237</v>
+                </pt>
+                <pt idx="3">
+                  <v>167</v>
+                </pt>
+                <pt idx="4">
+                  <v>226</v>
+                </pt>
+                <pt idx="5">
+                  <v>168</v>
+                </pt>
+                <pt idx="6">
+                  <v>232</v>
+                </pt>
+                <pt idx="7">
+                  <v>22</v>
+                </pt>
+                <pt idx="8">
+                  <v>76</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'Comparació anys'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Total Producció 2022</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <dLbls>
+            <spPr>
+              <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <txPr>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:ln w="0">
+                      <a:prstDash val="solid"/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>None</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </txPr>
+            <showLegendKey val="0"/>
+            <showVal val="1"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>'Comparació anys'!$A$2:$A$10</f>
+              <strCache>
+                <ptCount val="9"/>
+                <pt idx="0">
+                  <v>gen</v>
+                </pt>
+                <pt idx="1">
+                  <v>febr</v>
+                </pt>
+                <pt idx="2">
+                  <v>març</v>
+                </pt>
+                <pt idx="3">
+                  <v>abr</v>
+                </pt>
+                <pt idx="4">
+                  <v>maig</v>
+                </pt>
+                <pt idx="5">
+                  <v>juny</v>
+                </pt>
+                <pt idx="6">
+                  <v>juliol</v>
+                </pt>
+                <pt idx="7">
+                  <v>ag</v>
+                </pt>
+                <pt idx="8">
+                  <v>set</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Comparació anys'!$E$2:$E$10</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="9"/>
+                <pt idx="0">
+                  <v>121</v>
+                </pt>
+                <pt idx="1">
+                  <v>236</v>
+                </pt>
+                <pt idx="2">
+                  <v>345</v>
+                </pt>
+                <pt idx="3">
+                  <v>248</v>
+                </pt>
+                <pt idx="4">
+                  <v>194</v>
+                </pt>
+                <pt idx="5">
+                  <v>242</v>
+                </pt>
+                <pt idx="6">
+                  <v>196</v>
+                </pt>
+                <pt idx="7">
+                  <v>26</v>
+                </pt>
+                <pt idx="8">
+                  <v>196</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <marker val="1"/>
+        <smooth val="0"/>
+        <axId val="1004190032"/>
+        <axId val="1004187872"/>
+      </lineChart>
+      <catAx>
+        <axId val="1004190032"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1004187872"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="1004187872"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1004190032"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t>None</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </txPr>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -6814,26 +7593,36 @@
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
+        <cNvPr id="1" name="Chart 1"/>
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
     <clientData/>
   </twoCellAnchor>
-  <oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
     <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
+      <col>5</col>
+      <colOff>581025</colOff>
+      <row>6</row>
+      <rowOff>9525</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <to>
+      <col>13</col>
+      <colOff>28576</colOff>
+      <row>24</row>
+      <rowOff>9524</rowOff>
+    </to>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -6847,61 +7636,7 @@
       </a:graphic>
     </graphicFrame>
     <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>285750</colOff>
-      <row>1</row>
-      <rowOff>85725</rowOff>
-    </from>
-    <to>
-      <col>11</col>
-      <colOff>590550</colOff>
-      <row>17</row>
-      <rowOff>133350</rowOff>
-    </to>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
   </twoCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -7033,186 +7768,36 @@
 </wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Documentació"/>
-      <sheetName val="Master"/>
-      <sheetName val="Tecnologies"/>
-      <sheetName val="Total Desplegament"/>
-      <sheetName val="Desplegament per tecnologia"/>
-      <sheetName val="Evolució desp. tecnologia"/>
-      <sheetName val="Urgents"/>
-      <sheetName val="DevOps_vs_KO"/>
-      <sheetName val="Hoja1"/>
-      <sheetName val="Total"/>
-      <sheetName val="Total desplegaments"/>
-      <sheetName val="Total desplegaments mes"/>
-      <sheetName val="Total tecnologia"/>
-      <sheetName val="Total tecnologia mes"/>
-      <sheetName val="% KO Urgentes"/>
-      <sheetName val="% KO DevOps"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Suma de Producció KO</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>oct</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>nov</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>des</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>ene</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>feb</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>mar</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>abr</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>may</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>jun</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>jul</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>ago</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>sep</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="29">
-          <cell r="C29" t="str">
-            <v>Suma de Total Producció</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>oct</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>nov</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>dic</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>ene</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>feb</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v>mar</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v>abr</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>may</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>jun</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>jul</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>ago</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>sep</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Producció OK</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>1057275</colOff>
+      <row>16</row>
+      <rowOff>123824</rowOff>
+    </from>
+    <to>
+      <col>6</col>
+      <colOff>895350</colOff>
+      <row>34</row>
+      <rowOff>76199</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7529,116 +8114,116 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="9" t="inlineStr"/>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="A1" s="20" t="inlineStr"/>
+      <c r="B1" s="20" t="inlineStr">
         <is>
           <t>.NET</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="20" t="inlineStr">
         <is>
           <t>.NET con C/S</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="20" t="inlineStr">
         <is>
           <t>BBDD</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="20" t="inlineStr">
         <is>
           <t>BIM</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="20" t="inlineStr">
         <is>
           <t>Client/Servidor</t>
         </is>
       </c>
-      <c r="G1" s="9" t="inlineStr">
+      <c r="G1" s="20" t="inlineStr">
         <is>
           <t>Cognos</t>
         </is>
       </c>
-      <c r="H1" s="9" t="inlineStr">
+      <c r="H1" s="20" t="inlineStr">
         <is>
           <t>Devops</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="I1" s="20" t="inlineStr">
         <is>
           <t>Documentum</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="J1" s="20" t="inlineStr">
         <is>
           <t>Otros</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="K1" s="20" t="inlineStr">
         <is>
           <t>Paquet</t>
         </is>
       </c>
-      <c r="L1" s="9" t="inlineStr">
+      <c r="L1" s="20" t="inlineStr">
         <is>
           <t>Pegats</t>
         </is>
       </c>
-      <c r="M1" s="9" t="inlineStr">
+      <c r="M1" s="20" t="inlineStr">
         <is>
           <t>Websphere</t>
         </is>
       </c>
-      <c r="N1" s="9" t="inlineStr">
+      <c r="N1" s="20" t="inlineStr">
         <is>
           <t>Total General</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Octubre</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="6" t="n">
         <v>147</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="n">
+      <c r="J2" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N2" s="6" t="n">
         <v>232</v>
       </c>
     </row>
@@ -7689,48 +8274,48 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Desembre</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="6" t="n">
         <v>79</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="J4" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="M4" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="N4" s="4" t="n">
+      <c r="N4" s="6" t="n">
         <v>124</v>
       </c>
     </row>
@@ -7781,48 +8366,48 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Febrer</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="6" t="n">
         <v>143</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="4" t="n">
+      <c r="J6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="N6" s="4" t="n">
+      <c r="N6" s="6" t="n">
         <v>244</v>
       </c>
     </row>
@@ -7873,48 +8458,48 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Abril</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="6" t="n">
         <v>89</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="J8" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="4" t="n">
+      <c r="M8" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="N8" s="4" t="n">
+      <c r="N8" s="6" t="n">
         <v>167</v>
       </c>
     </row>
@@ -7965,48 +8550,48 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Juny</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="6" t="n">
         <v>88</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J10" s="4" t="n">
+      <c r="J10" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="M10" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="N10" s="4" t="n">
+      <c r="N10" s="6" t="n">
         <v>168</v>
       </c>
     </row>
@@ -8057,48 +8642,48 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Agost</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J12" s="4" t="n">
+      <c r="J12" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="M12" s="4" t="n">
+      <c r="M12" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="N12" s="4" t="n">
+      <c r="N12" s="6" t="n">
         <v>22</v>
       </c>
     </row>
@@ -8115,19 +8700,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -8142,10 +8727,10 @@
         <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N13" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -8163,7 +8748,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -8175,40 +8760,40 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="20" t="inlineStr">
         <is>
           <t>Producció OK</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="20" t="inlineStr">
         <is>
           <t>Producció KO</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="20" t="inlineStr">
         <is>
           <t>Total Producció</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Octubre</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="6" t="n">
         <v>195</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="6" t="n">
         <v>232</v>
       </c>
     </row>
@@ -8229,18 +8814,18 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Desembre</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="6" t="n">
         <v>109</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="6" t="n">
         <v>124</v>
       </c>
     </row>
@@ -8261,18 +8846,18 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Febrer</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="6" t="n">
         <v>213</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="6" t="n">
         <v>244</v>
       </c>
     </row>
@@ -8293,18 +8878,18 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Abril</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="6" t="n">
         <v>141</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="6" t="n">
         <v>167</v>
       </c>
     </row>
@@ -8325,18 +8910,18 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Juny</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="6" t="n">
         <v>153</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="6" t="n">
         <v>168</v>
       </c>
     </row>
@@ -8357,18 +8942,18 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Agost</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="6" t="n">
         <v>22</v>
       </c>
     </row>
@@ -8379,13 +8964,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C13" t="n">
         <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -8403,10 +8988,10 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="4"/>
     <col width="20" customWidth="1" min="2" max="2"/>
@@ -8415,41 +9000,41 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>Tecnologies</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="20" t="inlineStr">
         <is>
           <t>Producció OK</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="20" t="inlineStr">
         <is>
           <t>Producció KO</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="20" t="inlineStr">
         <is>
           <t>Total Producció</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Devops</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="B2" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>38</v>
+      <c r="D2" s="6" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -8459,29 +9044,29 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Websphere</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="B4" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>12</v>
+      <c r="D4" s="6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -8501,50 +9086,50 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Client/Servidor</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>5</v>
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>BIM</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BIM</t>
+          <t>Client/Servidor</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Paquet</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8565,18 +9150,18 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Cognos</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8597,23 +9182,23 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Otros</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="6" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
@@ -8637,25 +9222,25 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>Tecnologies</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="20" t="inlineStr">
         <is>
           <t>Total Producció</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Devops</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>1244</v>
+      <c r="B2" s="6" t="n">
+        <v>1238</v>
       </c>
     </row>
     <row r="3">
@@ -8665,17 +9250,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>BBDD</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>148</v>
+      <c r="B4" s="6" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="5">
@@ -8689,12 +9274,12 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>.NET</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="6" t="n">
         <v>87</v>
       </c>
     </row>
@@ -8705,16 +9290,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>BIM</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="6" t="n">
         <v>17</v>
       </c>
     </row>
@@ -8729,12 +9314,12 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Cognos</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8749,12 +9334,12 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>.NET con C/S</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -8793,25 +9378,25 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>Tecnologies</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="20" t="inlineStr">
         <is>
           <t>Total Producció</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Devops</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>38</v>
+      <c r="B2" s="6" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -8821,17 +9406,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Websphere</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>12</v>
+      <c r="B4" s="6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -8845,19 +9430,19 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Client/Servidor</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5</v>
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>BIM</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BIM</t>
+          <t>Client/Servidor</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -8865,12 +9450,12 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Paquet</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8885,12 +9470,12 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Cognos</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8905,12 +9490,12 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Otros</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8928,8 +9513,8 @@
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -8941,40 +9526,40 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="20" t="inlineStr">
         <is>
           <t>Total Producció</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="20" t="inlineStr">
         <is>
           <t>Urgents</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="20" t="inlineStr">
         <is>
           <t>% Urgents</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Octubre</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="6" t="n">
         <v>232</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="6" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8995,18 +9580,18 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Desembre</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="6" t="n">
         <v>124</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="6" t="n">
         <v>37</v>
       </c>
     </row>
@@ -9027,18 +9612,18 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Febrer</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="6" t="n">
         <v>244</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="6" t="n">
         <v>22</v>
       </c>
     </row>
@@ -9059,18 +9644,18 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Abril</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="6" t="n">
         <v>167</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="6" t="n">
         <v>31</v>
       </c>
     </row>
@@ -9091,18 +9676,18 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Juny</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="6" t="n">
         <v>168</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="6" t="n">
         <v>25</v>
       </c>
     </row>
@@ -9123,18 +9708,18 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Agost</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9145,13 +9730,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C13" t="n">
         <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -9181,40 +9766,40 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="20" t="inlineStr">
         <is>
           <t>Total Producció</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="20" t="inlineStr">
         <is>
           <t>Producció KO</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="20" t="inlineStr">
         <is>
           <t>% KO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Octubre</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="6" t="n">
         <v>147</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="6" t="n">
         <v>23</v>
       </c>
     </row>
@@ -9235,18 +9820,18 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Desembre</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="6" t="n">
         <v>79</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="6" t="n">
         <v>17</v>
       </c>
     </row>
@@ -9267,18 +9852,18 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Febrer</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="6" t="n">
         <v>143</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="6" t="n">
         <v>21</v>
       </c>
     </row>
@@ -9299,18 +9884,18 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Abril</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="6" t="n">
         <v>89</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -9331,18 +9916,18 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Juny</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="6" t="n">
         <v>88</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -9363,18 +9948,18 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Agost</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="6" t="n">
         <v>15</v>
       </c>
     </row>
@@ -9385,13 +9970,239 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="21" t="inlineStr">
+        <is>
+          <t>Mes</t>
+        </is>
+      </c>
+      <c r="B1" s="21" t="inlineStr">
+        <is>
+          <t>Producció OK 2023</t>
+        </is>
+      </c>
+      <c r="C1" s="21" t="inlineStr">
+        <is>
+          <t>Producció KO 2023</t>
+        </is>
+      </c>
+      <c r="D1" s="21" t="inlineStr">
+        <is>
+          <t>Total Producció 2023</t>
+        </is>
+      </c>
+      <c r="E1" s="21" t="inlineStr">
+        <is>
+          <t>Total Producció 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>gen</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>119</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>140</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>febr</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>213</v>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>244</v>
+      </c>
+      <c r="E3" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>març</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>213</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>237</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>abr</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>141</v>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>167</v>
+      </c>
+      <c r="E5" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>maig</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>206</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>226</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>juny</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>153</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>168</v>
+      </c>
+      <c r="E7" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>juliol</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>220</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>232</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ag</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22</v>
+      </c>
+      <c r="E9" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
